--- a/apps/platform/metadata/monthlyTranscodingOverage-2018-09.xlsx
+++ b/apps/platform/metadata/monthlyTranscodingOverage-2018-09.xlsx
@@ -9024,6 +9024,9 @@
       <c r="J279" t="s">
         <v>282</v>
       </c>
+      <c r="K279">
+        <v>6444.49</v>
+      </c>
     </row>
     <row r="280" spans="1:11">
       <c r="A280">
